--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/39_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2809638393189018</v>
+      </c>
+      <c r="E2">
+        <v>7.532292738685638E-05</v>
+      </c>
+      <c r="F2">
+        <v>0.2174506746130551</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.02098131180525722</v>
+      </c>
+      <c r="I2">
+        <v>0.009989881143484038</v>
+      </c>
+      <c r="J2">
+        <v>0.1533506682335389</v>
+      </c>
+      <c r="K2">
+        <v>0.0007709586336641202</v>
+      </c>
+      <c r="L2">
+        <v>0.04160206772743611</v>
+      </c>
+      <c r="M2">
+        <v>0.01756408128877014</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.09561126548571666</v>
+      </c>
+      <c r="P2">
+        <v>0.03112609490961015</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.002286954253242514</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.04078001931357827</v>
+      </c>
+      <c r="W2">
+        <v>0.03974090391116302</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.04770595643519512</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.009827575114579414</v>
-      </c>
-      <c r="E2">
-        <v>0.1889429192674925</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.2049272198497094</v>
-      </c>
-      <c r="H2">
-        <v>0.1264212815976622</v>
-      </c>
-      <c r="I2">
-        <v>0.01491137815025717</v>
-      </c>
-      <c r="J2">
-        <v>0.03261463869147573</v>
-      </c>
-      <c r="K2">
-        <v>0.01356026304915411</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.05390148670468743</v>
-      </c>
-      <c r="P2">
-        <v>0.1535209951083063</v>
-      </c>
-      <c r="Q2">
-        <v>0.04973915105478471</v>
-      </c>
-      <c r="R2">
-        <v>0.007705689212730363</v>
-      </c>
-      <c r="S2">
-        <v>0.003426564452126708</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.03633486132684614</v>
-      </c>
-      <c r="W2">
-        <v>0.04700804420976614</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0.01363392504535475</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.02518008097900139</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.01410595597829507</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0.004237970207770404</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2950080003520708</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.1483233512869245</v>
+      </c>
+      <c r="G3">
+        <v>0.08774291697836228</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.07117697674014732</v>
+      </c>
+      <c r="K3">
+        <v>0.01935840805703068</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.00752698248314592</v>
+      </c>
+      <c r="N3">
+        <v>0.0723296877844732</v>
+      </c>
+      <c r="O3">
+        <v>0.01359842817015425</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.02031428577608444</v>
+      </c>
+      <c r="R3">
+        <v>0.1485648603721558</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.04303700672012618</v>
+      </c>
+      <c r="U3">
+        <v>0.01594113825183743</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0223617340739678</v>
+      </c>
+      <c r="Z3">
+        <v>0.01113881372488338</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.02357740922863599</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2813513430161754</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0.1131555183395425</v>
-      </c>
-      <c r="H3">
-        <v>0.05205739151757476</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.05197934338320705</v>
-      </c>
-      <c r="L3">
-        <v>0.01946400501331369</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.07550251761402933</v>
-      </c>
-      <c r="P3">
-        <v>0.1014494699892957</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.009162291893857076</v>
-      </c>
-      <c r="T3">
-        <v>0.01625408256139031</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.05640431581689827</v>
-      </c>
-      <c r="W3">
-        <v>0.01961720254675339</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0.03153475142411076</v>
-      </c>
-      <c r="AA3">
-        <v>0.02072466647527125</v>
-      </c>
-      <c r="AB3">
-        <v>0.05024717635098329</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0.07304198947904901</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0.02805393457854805</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2563681880047425</v>
+      </c>
+      <c r="E4">
+        <v>0.002798391407232036</v>
+      </c>
+      <c r="F4">
+        <v>0.1805648624108282</v>
+      </c>
+      <c r="G4">
+        <v>0.1477040799633145</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.04001578563983831</v>
+      </c>
+      <c r="K4">
+        <v>0.03689158585469256</v>
+      </c>
+      <c r="L4">
+        <v>0.01758541215731457</v>
+      </c>
+      <c r="M4">
+        <v>0.1096480712966937</v>
+      </c>
+      <c r="N4">
+        <v>0.008000805259016815</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.0002927771315399687</v>
+      </c>
+      <c r="Q4">
+        <v>0.0961228125581613</v>
+      </c>
+      <c r="R4">
+        <v>0.05737440959898589</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.005632415842385576</v>
+      </c>
+      <c r="W4">
+        <v>0.03815145735312161</v>
+      </c>
+      <c r="X4">
+        <v>0.0018705197925836</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.0009784257295490457</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.02848553347204516</v>
-      </c>
-      <c r="E4">
-        <v>0.1392792210493116</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.155673735402329</v>
-      </c>
-      <c r="H4">
-        <v>0.2708867255471549</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.02868304800364113</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.06499928558849774</v>
-      </c>
-      <c r="P4">
-        <v>0.130272359328589</v>
-      </c>
-      <c r="Q4">
-        <v>0.06955732305727774</v>
-      </c>
-      <c r="R4">
-        <v>0.01215088489782958</v>
-      </c>
-      <c r="S4">
-        <v>0.001351986037636072</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.01131263921515008</v>
-      </c>
-      <c r="V4">
-        <v>0.0340386388737161</v>
-      </c>
-      <c r="W4">
-        <v>0.02158803438510002</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.01716447513663188</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0.007436841066311446</v>
-      </c>
-      <c r="AE4">
-        <v>0.00132501524231182</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0.005794253696466875</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.06167769982348137</v>
+      </c>
+      <c r="E5">
+        <v>0.1852763231601657</v>
+      </c>
+      <c r="F5">
+        <v>0.04686436150203165</v>
+      </c>
+      <c r="G5">
+        <v>0.2374596262658346</v>
+      </c>
+      <c r="H5">
+        <v>0.07745164611757444</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.07315259407433063</v>
+      </c>
+      <c r="L5">
+        <v>0.01082181001419</v>
+      </c>
+      <c r="M5">
+        <v>0.05130075782422767</v>
+      </c>
+      <c r="N5">
+        <v>0.04087391048025256</v>
+      </c>
+      <c r="O5">
+        <v>0.005471509384173797</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.01331649714367445</v>
+      </c>
+      <c r="R5">
+        <v>0.1392828960047239</v>
+      </c>
+      <c r="S5">
+        <v>0.01046715457223235</v>
+      </c>
+      <c r="T5">
+        <v>0.002319684678019202</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0314914190861044</v>
+      </c>
+      <c r="X5">
+        <v>0.01277210986898324</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2704086414795412</v>
-      </c>
-      <c r="E5">
-        <v>0.03111892183841836</v>
-      </c>
-      <c r="F5">
-        <v>0.2082307508877682</v>
-      </c>
-      <c r="G5">
-        <v>0.1517049537056725</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0.007756116428900603</v>
-      </c>
-      <c r="J5">
-        <v>0.006220979023596916</v>
-      </c>
-      <c r="K5">
-        <v>0.01135064283970488</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.045846610700101</v>
-      </c>
-      <c r="N5">
-        <v>0.07565962763983446</v>
-      </c>
-      <c r="O5">
-        <v>0.007409875756409986</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0.1074547215308998</v>
-      </c>
-      <c r="R5">
-        <v>0.06121159919154916</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.001389977961746261</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.003286276469417352</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0.004168017652587896</v>
-      </c>
-      <c r="AC5">
-        <v>0.006782286893851347</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,73 +1096,73 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004615369903935967</v>
+        <v>0.291407532070952</v>
       </c>
       <c r="E6">
-        <v>0.1958121936262147</v>
+        <v>0.04108151900631823</v>
       </c>
       <c r="F6">
-        <v>0.0142318632788916</v>
+        <v>0.1504099774074531</v>
       </c>
       <c r="G6">
-        <v>0.2136483038440998</v>
+        <v>0.1592383902442689</v>
       </c>
       <c r="H6">
-        <v>0.1586677175086092</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01504855555188794</v>
+        <v>0.0514827326317559</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01432302240816911</v>
       </c>
       <c r="L6">
-        <v>0.04784183368738099</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03440317897381648</v>
       </c>
       <c r="N6">
-        <v>0.05963179933118884</v>
+        <v>0.02364729551163317</v>
       </c>
       <c r="O6">
-        <v>0.1115233741026813</v>
+        <v>0.005489983879022711</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.000820969686727025</v>
+        <v>0.03904733265614166</v>
       </c>
       <c r="R6">
-        <v>0.05376202541694088</v>
+        <v>0.1137133857451396</v>
       </c>
       <c r="S6">
-        <v>0.06113406867383525</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01768503314272352</v>
       </c>
       <c r="U6">
-        <v>0.04018219752908593</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.007095417975370935</v>
+        <v>0.0004377185724037441</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0494166699861267</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.005745931588403382</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.00247029617567175</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1189,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0159843098831496</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1207,9 +1189,6 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,454 +1311,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.2809638393189018</v>
+      </c>
+      <c r="E2">
+        <v>0.2810391622462887</v>
+      </c>
+      <c r="F2">
+        <v>0.4984898368593438</v>
+      </c>
+      <c r="G2">
+        <v>0.4984898368593438</v>
+      </c>
+      <c r="H2">
+        <v>0.5194711486646011</v>
+      </c>
+      <c r="I2">
+        <v>0.5294610298080852</v>
+      </c>
+      <c r="J2">
+        <v>0.682811698041624</v>
+      </c>
+      <c r="K2">
+        <v>0.6835826566752882</v>
+      </c>
+      <c r="L2">
+        <v>0.7251847244027243</v>
+      </c>
+      <c r="M2">
+        <v>0.7427488056914945</v>
+      </c>
+      <c r="N2">
+        <v>0.7427488056914945</v>
+      </c>
+      <c r="O2">
+        <v>0.8383600711772111</v>
+      </c>
+      <c r="P2">
+        <v>0.8694861660868213</v>
+      </c>
+      <c r="Q2">
+        <v>0.8694861660868213</v>
+      </c>
+      <c r="R2">
+        <v>0.8717731203400638</v>
+      </c>
+      <c r="S2">
+        <v>0.8717731203400638</v>
+      </c>
+      <c r="T2">
+        <v>0.8717731203400638</v>
+      </c>
+      <c r="U2">
+        <v>0.8717731203400638</v>
+      </c>
+      <c r="V2">
+        <v>0.912553139653642</v>
+      </c>
+      <c r="W2">
+        <v>0.9522940435648051</v>
+      </c>
+      <c r="X2">
+        <v>0.9522940435648051</v>
+      </c>
+      <c r="Y2">
+        <v>0.9522940435648051</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.009827575114579414</v>
-      </c>
-      <c r="E2">
-        <v>0.1987704943820719</v>
-      </c>
-      <c r="F2">
-        <v>0.1987704943820719</v>
-      </c>
-      <c r="G2">
-        <v>0.4036977142317813</v>
-      </c>
-      <c r="H2">
-        <v>0.5301189958294436</v>
-      </c>
-      <c r="I2">
-        <v>0.5450303739797007</v>
-      </c>
-      <c r="J2">
-        <v>0.5776450126711764</v>
-      </c>
-      <c r="K2">
-        <v>0.5912052757203305</v>
-      </c>
-      <c r="L2">
-        <v>0.5912052757203305</v>
-      </c>
-      <c r="M2">
-        <v>0.5912052757203305</v>
-      </c>
-      <c r="N2">
-        <v>0.5912052757203305</v>
-      </c>
-      <c r="O2">
-        <v>0.645106762425018</v>
-      </c>
-      <c r="P2">
-        <v>0.7986277575333243</v>
-      </c>
-      <c r="Q2">
-        <v>0.8483669085881089</v>
-      </c>
-      <c r="R2">
-        <v>0.8560725978008393</v>
-      </c>
-      <c r="S2">
-        <v>0.8594991622529661</v>
-      </c>
-      <c r="T2">
-        <v>0.8594991622529661</v>
-      </c>
-      <c r="U2">
-        <v>0.8594991622529661</v>
-      </c>
-      <c r="V2">
-        <v>0.8958340235798122</v>
-      </c>
-      <c r="W2">
-        <v>0.9428420677895784</v>
-      </c>
-      <c r="X2">
-        <v>0.9428420677895784</v>
-      </c>
-      <c r="Y2">
-        <v>0.9428420677895784</v>
-      </c>
-      <c r="Z2">
-        <v>0.9564759928349331</v>
-      </c>
-      <c r="AA2">
-        <v>0.9564759928349331</v>
-      </c>
-      <c r="AB2">
-        <v>0.9816560738139345</v>
-      </c>
-      <c r="AC2">
-        <v>0.9816560738139345</v>
-      </c>
-      <c r="AD2">
-        <v>0.9957620297922296</v>
-      </c>
-      <c r="AE2">
-        <v>0.9957620297922296</v>
-      </c>
-      <c r="AF2">
-        <v>0.9957620297922296</v>
-      </c>
-      <c r="AG2">
-        <v>0.9957620297922296</v>
-      </c>
-      <c r="AH2">
-        <v>0.9957620297922296</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2950080003520708</v>
+      </c>
+      <c r="E3">
+        <v>0.2950080003520708</v>
+      </c>
+      <c r="F3">
+        <v>0.4433313516389953</v>
+      </c>
+      <c r="G3">
+        <v>0.5310742686173575</v>
+      </c>
+      <c r="H3">
+        <v>0.5310742686173575</v>
+      </c>
+      <c r="I3">
+        <v>0.5310742686173575</v>
+      </c>
+      <c r="J3">
+        <v>0.6022512453575048</v>
+      </c>
+      <c r="K3">
+        <v>0.6216096534145356</v>
+      </c>
+      <c r="L3">
+        <v>0.6216096534145356</v>
+      </c>
+      <c r="M3">
+        <v>0.6291366358976814</v>
+      </c>
+      <c r="N3">
+        <v>0.7014663236821547</v>
+      </c>
+      <c r="O3">
+        <v>0.7150647518523089</v>
+      </c>
+      <c r="P3">
+        <v>0.7150647518523089</v>
+      </c>
+      <c r="Q3">
+        <v>0.7353790376283933</v>
+      </c>
+      <c r="R3">
+        <v>0.8839438980005492</v>
+      </c>
+      <c r="S3">
+        <v>0.8839438980005492</v>
+      </c>
+      <c r="T3">
+        <v>0.9269809047206754</v>
+      </c>
+      <c r="U3">
+        <v>0.9429220429725128</v>
+      </c>
+      <c r="V3">
+        <v>0.9429220429725128</v>
+      </c>
+      <c r="W3">
+        <v>0.9429220429725128</v>
+      </c>
+      <c r="X3">
+        <v>0.9429220429725128</v>
+      </c>
+      <c r="Y3">
+        <v>0.9652837770464806</v>
+      </c>
+      <c r="Z3">
+        <v>0.976422590771364</v>
+      </c>
+      <c r="AA3">
+        <v>0.976422590771364</v>
+      </c>
+      <c r="AB3">
+        <v>0.976422590771364</v>
+      </c>
+      <c r="AC3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0.2813513430161754</v>
-      </c>
-      <c r="F3">
-        <v>0.2813513430161754</v>
-      </c>
-      <c r="G3">
-        <v>0.3945068613557179</v>
-      </c>
-      <c r="H3">
-        <v>0.4465642528732927</v>
-      </c>
-      <c r="I3">
-        <v>0.4465642528732927</v>
-      </c>
-      <c r="J3">
-        <v>0.4465642528732927</v>
-      </c>
-      <c r="K3">
-        <v>0.4985435962564997</v>
-      </c>
-      <c r="L3">
-        <v>0.5180076012698134</v>
-      </c>
-      <c r="M3">
-        <v>0.5180076012698134</v>
-      </c>
-      <c r="N3">
-        <v>0.5180076012698134</v>
-      </c>
-      <c r="O3">
-        <v>0.5935101188838428</v>
-      </c>
-      <c r="P3">
-        <v>0.6949595888731385</v>
-      </c>
-      <c r="Q3">
-        <v>0.6949595888731385</v>
-      </c>
-      <c r="R3">
-        <v>0.6949595888731385</v>
-      </c>
-      <c r="S3">
-        <v>0.7041218807669956</v>
-      </c>
-      <c r="T3">
-        <v>0.7203759633283858</v>
-      </c>
-      <c r="U3">
-        <v>0.7203759633283858</v>
-      </c>
-      <c r="V3">
-        <v>0.7767802791452841</v>
-      </c>
-      <c r="W3">
-        <v>0.7963974816920375</v>
-      </c>
-      <c r="X3">
-        <v>0.7963974816920375</v>
-      </c>
-      <c r="Y3">
-        <v>0.7963974816920375</v>
-      </c>
-      <c r="Z3">
-        <v>0.8279322331161483</v>
-      </c>
-      <c r="AA3">
-        <v>0.8486568995914195</v>
-      </c>
-      <c r="AB3">
-        <v>0.8989040759424028</v>
-      </c>
-      <c r="AC3">
-        <v>0.8989040759424028</v>
-      </c>
-      <c r="AD3">
-        <v>0.9719460654214519</v>
-      </c>
-      <c r="AE3">
-        <v>0.9719460654214519</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2563681880047425</v>
+      </c>
+      <c r="E4">
+        <v>0.2591665794119746</v>
+      </c>
+      <c r="F4">
+        <v>0.4397314418228028</v>
+      </c>
+      <c r="G4">
+        <v>0.5874355217861172</v>
+      </c>
+      <c r="H4">
+        <v>0.5874355217861172</v>
+      </c>
+      <c r="I4">
+        <v>0.5874355217861172</v>
+      </c>
+      <c r="J4">
+        <v>0.6274513074259556</v>
+      </c>
+      <c r="K4">
+        <v>0.6643428932806481</v>
+      </c>
+      <c r="L4">
+        <v>0.6819283054379627</v>
+      </c>
+      <c r="M4">
+        <v>0.7915763767346564</v>
+      </c>
+      <c r="N4">
+        <v>0.7995771819936732</v>
+      </c>
+      <c r="O4">
+        <v>0.7995771819936732</v>
+      </c>
+      <c r="P4">
+        <v>0.7998699591252132</v>
+      </c>
+      <c r="Q4">
+        <v>0.8959927716833744</v>
+      </c>
+      <c r="R4">
+        <v>0.9533671812823603</v>
+      </c>
+      <c r="S4">
+        <v>0.9533671812823603</v>
+      </c>
+      <c r="T4">
+        <v>0.9533671812823603</v>
+      </c>
+      <c r="U4">
+        <v>0.9533671812823603</v>
+      </c>
+      <c r="V4">
+        <v>0.9589995971247459</v>
+      </c>
+      <c r="W4">
+        <v>0.9971510544778676</v>
+      </c>
+      <c r="X4">
+        <v>0.9990215742704511</v>
+      </c>
+      <c r="Y4">
+        <v>0.9990215742704511</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.02848553347204516</v>
-      </c>
-      <c r="E4">
-        <v>0.1677647545213568</v>
-      </c>
-      <c r="F4">
-        <v>0.1677647545213568</v>
-      </c>
-      <c r="G4">
-        <v>0.3234384899236858</v>
-      </c>
-      <c r="H4">
-        <v>0.5943252154708407</v>
-      </c>
-      <c r="I4">
-        <v>0.5943252154708407</v>
-      </c>
-      <c r="J4">
-        <v>0.6230082634744818</v>
-      </c>
-      <c r="K4">
-        <v>0.6230082634744818</v>
-      </c>
-      <c r="L4">
-        <v>0.6230082634744818</v>
-      </c>
-      <c r="M4">
-        <v>0.6230082634744818</v>
-      </c>
-      <c r="N4">
-        <v>0.6230082634744818</v>
-      </c>
-      <c r="O4">
-        <v>0.6880075490629796</v>
-      </c>
-      <c r="P4">
-        <v>0.8182799083915686</v>
-      </c>
-      <c r="Q4">
-        <v>0.8878372314488463</v>
-      </c>
-      <c r="R4">
-        <v>0.8999881163466759</v>
-      </c>
-      <c r="S4">
-        <v>0.9013401023843119</v>
-      </c>
-      <c r="T4">
-        <v>0.9013401023843119</v>
-      </c>
-      <c r="U4">
-        <v>0.9126527415994621</v>
-      </c>
-      <c r="V4">
-        <v>0.9466913804731781</v>
-      </c>
-      <c r="W4">
-        <v>0.9682794148582782</v>
-      </c>
-      <c r="X4">
-        <v>0.9682794148582782</v>
-      </c>
-      <c r="Y4">
-        <v>0.9682794148582782</v>
-      </c>
-      <c r="Z4">
-        <v>0.9854438899949101</v>
-      </c>
-      <c r="AA4">
-        <v>0.9854438899949101</v>
-      </c>
-      <c r="AB4">
-        <v>0.9854438899949101</v>
-      </c>
-      <c r="AC4">
-        <v>0.9854438899949101</v>
-      </c>
-      <c r="AD4">
-        <v>0.9928807310612215</v>
-      </c>
-      <c r="AE4">
-        <v>0.9942057463035333</v>
-      </c>
-      <c r="AF4">
-        <v>0.9942057463035333</v>
-      </c>
-      <c r="AG4">
-        <v>0.9942057463035333</v>
-      </c>
-      <c r="AH4">
-        <v>0.9942057463035333</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.06167769982348137</v>
+      </c>
+      <c r="E5">
+        <v>0.246954022983647</v>
+      </c>
+      <c r="F5">
+        <v>0.2938183844856787</v>
+      </c>
+      <c r="G5">
+        <v>0.5312780107515134</v>
+      </c>
+      <c r="H5">
+        <v>0.6087296568690879</v>
+      </c>
+      <c r="I5">
+        <v>0.6087296568690879</v>
+      </c>
+      <c r="J5">
+        <v>0.6087296568690879</v>
+      </c>
+      <c r="K5">
+        <v>0.6818822509434185</v>
+      </c>
+      <c r="L5">
+        <v>0.6927040609576085</v>
+      </c>
+      <c r="M5">
+        <v>0.7440048187818362</v>
+      </c>
+      <c r="N5">
+        <v>0.7848787292620888</v>
+      </c>
+      <c r="O5">
+        <v>0.7903502386462626</v>
+      </c>
+      <c r="P5">
+        <v>0.7903502386462626</v>
+      </c>
+      <c r="Q5">
+        <v>0.8036667357899371</v>
+      </c>
+      <c r="R5">
+        <v>0.942949631794661</v>
+      </c>
+      <c r="S5">
+        <v>0.9534167863668933</v>
+      </c>
+      <c r="T5">
+        <v>0.9557364710449125</v>
+      </c>
+      <c r="U5">
+        <v>0.9557364710449125</v>
+      </c>
+      <c r="V5">
+        <v>0.9557364710449125</v>
+      </c>
+      <c r="W5">
+        <v>0.987227890131017</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.2704086414795412</v>
-      </c>
-      <c r="E5">
-        <v>0.3015275633179595</v>
-      </c>
-      <c r="F5">
-        <v>0.5097583142057277</v>
-      </c>
-      <c r="G5">
-        <v>0.6614632679114002</v>
-      </c>
-      <c r="H5">
-        <v>0.6614632679114002</v>
-      </c>
-      <c r="I5">
-        <v>0.6692193843403008</v>
-      </c>
-      <c r="J5">
-        <v>0.6754403633638977</v>
-      </c>
-      <c r="K5">
-        <v>0.6867910062036026</v>
-      </c>
-      <c r="L5">
-        <v>0.6867910062036026</v>
-      </c>
-      <c r="M5">
-        <v>0.7326376169037035</v>
-      </c>
-      <c r="N5">
-        <v>0.808297244543538</v>
-      </c>
-      <c r="O5">
-        <v>0.815707120299948</v>
-      </c>
-      <c r="P5">
-        <v>0.815707120299948</v>
-      </c>
-      <c r="Q5">
-        <v>0.9231618418308477</v>
-      </c>
-      <c r="R5">
-        <v>0.9843734410223969</v>
-      </c>
-      <c r="S5">
-        <v>0.9843734410223969</v>
-      </c>
-      <c r="T5">
-        <v>0.9857634189841431</v>
-      </c>
-      <c r="U5">
-        <v>0.9857634189841431</v>
-      </c>
-      <c r="V5">
-        <v>0.9857634189841431</v>
-      </c>
-      <c r="W5">
-        <v>0.9890496954535605</v>
-      </c>
-      <c r="X5">
-        <v>0.9890496954535605</v>
-      </c>
-      <c r="Y5">
-        <v>0.9890496954535605</v>
-      </c>
-      <c r="Z5">
-        <v>0.9890496954535605</v>
-      </c>
-      <c r="AA5">
-        <v>0.9890496954535605</v>
-      </c>
-      <c r="AB5">
-        <v>0.9932177131061484</v>
-      </c>
-      <c r="AC5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AD5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AE5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AF5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AG5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AH5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AI5">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AJ5">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1787,103 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004615369903935967</v>
+        <v>0.291407532070952</v>
       </c>
       <c r="E6">
-        <v>0.2004275635301507</v>
+        <v>0.3324890510772703</v>
       </c>
       <c r="F6">
-        <v>0.2146594268090423</v>
+        <v>0.4828990284847234</v>
       </c>
       <c r="G6">
-        <v>0.4283077306531421</v>
+        <v>0.6421374187289923</v>
       </c>
       <c r="H6">
-        <v>0.5869754481617513</v>
+        <v>0.6421374187289923</v>
       </c>
       <c r="I6">
-        <v>0.5869754481617513</v>
+        <v>0.6421374187289923</v>
       </c>
       <c r="J6">
-        <v>0.6020240037136392</v>
+        <v>0.6936201513607483</v>
       </c>
       <c r="K6">
-        <v>0.6020240037136392</v>
+        <v>0.7079431737689174</v>
       </c>
       <c r="L6">
-        <v>0.6498658374010202</v>
+        <v>0.7079431737689174</v>
       </c>
       <c r="M6">
-        <v>0.6498658374010202</v>
+        <v>0.7423463527427339</v>
       </c>
       <c r="N6">
-        <v>0.709497636732209</v>
+        <v>0.765993648254367</v>
       </c>
       <c r="O6">
-        <v>0.8210210108348903</v>
+        <v>0.7714836321333897</v>
       </c>
       <c r="P6">
-        <v>0.8210210108348903</v>
+        <v>0.7714836321333897</v>
       </c>
       <c r="Q6">
-        <v>0.8218419805216174</v>
+        <v>0.8105309647895313</v>
       </c>
       <c r="R6">
-        <v>0.8756040059385582</v>
+        <v>0.9242443505346709</v>
       </c>
       <c r="S6">
-        <v>0.9367380746123934</v>
+        <v>0.9242443505346709</v>
       </c>
       <c r="T6">
-        <v>0.9367380746123934</v>
+        <v>0.9419293836773944</v>
       </c>
       <c r="U6">
-        <v>0.9769202721414794</v>
+        <v>0.9419293836773944</v>
       </c>
       <c r="V6">
-        <v>0.9840156901168503</v>
+        <v>0.9423671022497981</v>
       </c>
       <c r="W6">
-        <v>0.9840156901168503</v>
+        <v>0.9917837722359248</v>
       </c>
       <c r="X6">
-        <v>0.9840156901168503</v>
+        <v>0.9975297038243283</v>
       </c>
       <c r="Y6">
-        <v>0.9840156901168503</v>
+        <v>0.9975297038243283</v>
       </c>
       <c r="Z6">
-        <v>0.9840156901168503</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9840156901168503</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9840156901168503</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1901,54 +1862,54 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1957,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5301189958294436</v>
+        <v>0.5194711486646011</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -1969,39 +1930,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5180076012698134</v>
+        <v>0.5310742686173575</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2010,36 +1971,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5943252154708407</v>
+        <v>0.5874355217861172</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2051,21 +2012,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2074,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5312780107515134</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5097583142057277</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -2092,36 +2053,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5869754481617513</v>
+        <v>0.6421374187289923</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -2133,16 +2094,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,66 +2121,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7986277575333243</v>
+        <v>0.7251847244027243</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -2228,39 +2189,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7041218807669956</v>
+        <v>0.7014663236821547</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2269,39 +2230,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8182799083915686</v>
+        <v>0.7915763767346564</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -2310,21 +2271,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2339,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7326376169037035</v>
+        <v>0.7440048187818362</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -2351,39 +2312,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.709497636732209</v>
+        <v>0.7079431737689174</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -2392,16 +2353,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,66 +2380,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8483669085881089</v>
+        <v>0.8383600711772111</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>39</v>
@@ -2487,39 +2448,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8279322331161483</v>
+        <v>0.8839438980005492</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2528,39 +2489,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.8959927716833744</v>
+      </c>
+      <c r="G4">
         <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.8182799083915686</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
       </c>
       <c r="H4">
         <v>39</v>
@@ -2569,21 +2530,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2592,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.808297244543538</v>
+        <v>0.8036667357899371</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -2610,39 +2571,39 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8210210108348903</v>
+        <v>0.8105309647895313</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>39</v>
@@ -2651,16 +2612,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,63 +2639,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9428420677895784</v>
+        <v>0.912553139653642</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -2746,39 +2707,39 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9719460654214519</v>
+        <v>0.9269809047206754</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>39</v>
@@ -2787,36 +2748,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9013401023843119</v>
+        <v>0.9533671812823603</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2828,21 +2789,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2851,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.942949631794661</v>
+      </c>
+      <c r="G5">
         <v>16</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9231618418308477</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
       </c>
       <c r="H5">
         <v>39</v>
@@ -2869,36 +2830,36 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9367380746123934</v>
+        <v>0.9242443505346709</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -2910,16 +2871,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
